--- a/2023.11.01/data.xlsx
+++ b/2023.11.01/data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebec\Desktop\dsc\DSCgithub\Meetings\2023.11.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A7A140AC-ABF1-4C26-B60C-FC4F6DAB1415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA277591-ECB1-4378-874A-281321EE4237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{D223549B-750A-4491-83E5-878AB9D44A9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data_csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -427,7 +427,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
